--- a/output/portfolio_last6m_ranked.xlsx
+++ b/output/portfolio_last6m_ranked.xlsx
@@ -482,24 +482,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SSRM</t>
+          <t>KYIV</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09940768010051459</v>
+        <v>0.05151199800652906</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1046132813998992</v>
+        <v>0.0519383224451675</v>
       </c>
       <c r="D2" t="n">
-        <v>0.106135875773567</v>
+        <v>0.02974685728741288</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9366077151197538</v>
+        <v>1.73167866133966</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SSR Mining Inc.</t>
+          <t>Kyivstar Group Ltd.</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -509,24 +509,24 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AEM</t>
+          <t>COOP</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05231108263860795</v>
+        <v>0.05050747514549103</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05589526061957164</v>
+        <v>0.05173915336845145</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08700129284291536</v>
+        <v>0.05048100981447867</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6012678769390002</v>
+        <v>1.000524263106258</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Agnico Eagle Mines Limited</t>
+          <t>Mr. Cooper Group Inc.</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -536,24 +536,24 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>KGC</t>
+          <t>TMC</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05145605041967194</v>
+        <v>0.2123338372615076</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05687836598066661</v>
+        <v>0.2523421241409816</v>
       </c>
       <c r="D4" t="n">
-        <v>0.108179910388082</v>
+        <v>0.3246864803869653</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4756525517083507</v>
+        <v>0.6539657487692295</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kinross Gold Corporation</t>
+          <t>TMC the metals company Inc.</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -563,24 +563,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WPM</t>
+          <t>TGTX</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04119842847348343</v>
+        <v>0.1045557149112291</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04498148135810975</v>
+        <v>0.1200961072977891</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08708427770489341</v>
+        <v>0.1863221207875556</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4730868712386234</v>
+        <v>0.5611556720656021</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Wheaton Precious Metals Corp.</t>
+          <t>TG Therapeutics, Inc.</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -590,24 +590,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GFI</t>
+          <t>RIVN</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.064697724303447</v>
+        <v>0.0516104280878531</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07503688223185956</v>
+        <v>0.0556876489864009</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1485668619673817</v>
+        <v>0.09309908327775648</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4354788372500698</v>
+        <v>0.5543602178538746</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gold Fields Limited</t>
+          <t>Rivian Automotive, Inc.</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -617,24 +617,24 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GH</t>
+          <t>TIGR</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1086710144702421</v>
+        <v>0.04431809700233824</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1473163011517812</v>
+        <v>0.04854315150389647</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3119872864838668</v>
+        <v>0.09370807352662741</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3483187270064018</v>
+        <v>0.4729378732745491</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Guardant Health, Inc.</t>
+          <t>UP Fintech Holding Limited</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -644,24 +644,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PRVA</t>
+          <t>SGHC</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03550231151259964</v>
+        <v>0.1260667708169878</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04149612784110165</v>
+        <v>0.1569868029072753</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1110352899510385</v>
+        <v>0.273443880899774</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3197389904439798</v>
+        <v>0.4610334318038565</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Privia Health Group, Inc.</t>
+          <t>Super Group (SGHC) Limited</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -671,24 +671,24 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>JOYY</t>
+          <t>PTCT</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0248076798903083</v>
+        <v>0.03768272558492058</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0283592276749378</v>
+        <v>0.04149349139759565</v>
       </c>
       <c r="D9" t="n">
-        <v>0.08447001864629199</v>
+        <v>0.09031398584421016</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2936862130241437</v>
+        <v>0.41724130800652</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>JOYY Inc.</t>
+          <t>PTC Therapeutics, Inc.</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -698,24 +698,24 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IAG</t>
+          <t>REVG</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03014032449660786</v>
+        <v>0.03629967209504503</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03606651729807714</v>
+        <v>0.04009127131162876</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1111997943170226</v>
+        <v>0.08732509251197342</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2710465849485295</v>
+        <v>0.4156843245263997</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>IAMGOLD Corporation</t>
+          <t>REV Group, Inc.</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -725,24 +725,24 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HMY</t>
+          <t>PSKY</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.065090558865323</v>
+        <v>0.01330923477842472</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09191070090906585</v>
+        <v>0.01389900652474141</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2497229076570287</v>
+        <v>0.03450959428292662</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2606511331940715</v>
+        <v>0.3856676688027412</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Harmony Gold Mining Company Limited</t>
+          <t>Paramount Skydance Corporation</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -776,263 +776,263 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>SSRM</t>
+          <t>KYIV</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AEM</t>
+          <t>COOP</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>KGC</t>
+          <t>TMC</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>WPM</t>
+          <t>TGTX</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>GFI</t>
+          <t>RIVN</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>GH</t>
+          <t>TIGR</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>PRVA</t>
+          <t>SGHC</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>JOYY</t>
+          <t>PTCT</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>IAG</t>
+          <t>REVG</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>HMY</t>
+          <t>PSKY</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="B2" t="n">
-        <v>0.004004000277224362</v>
+        <v>0.0713648695818474</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1307433174251975</v>
+        <v>-0.004933079811186514</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1763059365775044</v>
+        <v>0.8255814259731808</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1263783374032583</v>
+        <v>0.1541972601902144</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2292709866019369</v>
+        <v>0.09718875957303275</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00117507022225749</v>
+        <v>-0.03958092509293609</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.1009210500485392</v>
+        <v>0.2681159306497909</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1027997540061192</v>
+        <v>-0.021978001412995</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1322463807238923</v>
+        <v>0.03667636776282968</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4844221892565803</v>
+        <v>-0.01417817407365141</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45777</v>
+        <v>45808</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06081760982967266</v>
+        <v>-0.0008326585088472838</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08458623281934052</v>
+        <v>0.08839590332100156</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1736631986910879</v>
+        <v>0.4235667646030425</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07587274872008831</v>
+        <v>-0.228521162266465</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03915111714804609</v>
+        <v>0.06368959701883914</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1086854749754955</v>
+        <v>-0.01696973858457618</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04587967680594485</v>
+        <v>0.07635459440181891</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.01953310612717152</v>
+        <v>-0.02648474499965825</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1327999877929686</v>
+        <v>0.1464831573875334</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07718342801431177</v>
+        <v>0.03066448347654527</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45808</v>
+        <v>45838</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1118420622166707</v>
+        <v>-0.08583331108093262</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003486947531847084</v>
+        <v>0.1519339776116466</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0006775043587432528</v>
+        <v>0.4765101150820399</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04088577702457608</v>
+        <v>0.02506411429271749</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02040812181847662</v>
+        <v>-0.05437026678399548</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1399534337162219</v>
+        <v>0.1898890292288844</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0306643665839661</v>
+        <v>0.2551488580080126</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1907719388222791</v>
+        <v>0.006595212114698379</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.03107341702858246</v>
+        <v>0.2694051156308384</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.07614007633410314</v>
+        <v>0.06611560566911878</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45838</v>
+        <v>45869</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0769230645207839</v>
+        <v>-0.04831364391471038</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01139031129637669</v>
+        <v>0.04362974474841907</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06181480521359783</v>
+        <v>-0.09999997832558338</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03715961093911657</v>
+        <v>-0.01361493902791255</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02913043809973681</v>
+        <v>-0.06331877001831143</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2811423506630972</v>
+        <v>0.01450780817171426</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01054480530336765</v>
+        <v>-0.01598860340066521</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06328323885298337</v>
+        <v>0.06695332611685934</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0714285366736771</v>
+        <v>0.04255144620193962</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04249485120458407</v>
+        <v>-0.02146640170747083</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45869</v>
+        <v>45900</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.06200941727204523</v>
+        <v>0.1676245278101582</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04565711167276842</v>
+        <v>0.2106986726264657</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02367241821632748</v>
+        <v>-0.09764308385839604</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01904230541603735</v>
+        <v>-0.1738028190505336</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02915084629630682</v>
+        <v>0.05439004005358061</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2125288466317264</v>
+        <v>0.2768130795410166</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.1513043279233186</v>
+        <v>0.08186047576194588</v>
       </c>
       <c r="I6" t="n">
-        <v>0.005008612311274918</v>
+        <v>-0.05334866142267192</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.08027206576953372</v>
+        <v>0.07386478110527683</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.03650681597233107</v>
+        <v>0.169451087203921</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45900</v>
+        <v>45930</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6158995626904407</v>
+        <v>-0.03527476343751801</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1592955730248267</v>
+        <v>0.003766014525350636</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3083070416123086</v>
+        <v>0.05783580877940819</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09736636241632457</v>
+        <v>0.08114555632313381</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3743841832257304</v>
+        <v>0.06411200479915347</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6451927506601949</v>
+        <v>0.03919998168945305</v>
       </c>
       <c r="H7" t="n">
-        <v>0.180327888074596</v>
+        <v>-0.006018890295392265</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07689244126867112</v>
+        <v>0.1260895433839249</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3772189503544818</v>
+        <v>0.09603459308915352</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.01337297954425276</v>
+        <v>0.02448983775664137</v>
       </c>
     </row>
   </sheetData>
@@ -1068,50 +1068,50 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1080825414433193</v>
+        <v>0.1372454433340127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45777</v>
+        <v>45808</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07791063686697848</v>
+        <v>0.0556346195849234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45808</v>
+        <v>45838</v>
       </c>
       <c r="B4" t="n">
-        <v>0.008888604939223266</v>
+        <v>0.1300458449773028</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45838</v>
+        <v>45869</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06003223103581531</v>
+        <v>-0.009506001115572149</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45869</v>
+        <v>45900</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.04200901796562401</v>
+        <v>0.07099080997707632</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45900</v>
+        <v>45930</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2821511773783322</v>
+        <v>0.04513796866133087</v>
       </c>
     </row>
   </sheetData>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08250936228300741</v>
+        <v>0.07159144756984566</v>
       </c>
     </row>
     <row r="4">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1016218927061585</v>
+        <v>0.05042969956711299</v>
       </c>
     </row>
     <row r="5">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5689814670002644</v>
+        <v>0.5040944576778061</v>
       </c>
     </row>
   </sheetData>
